--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1679707097409744</v>
+        <v>0.2864952190481806</v>
       </c>
       <c r="D2">
-        <v>0.0006802407370596342</v>
+        <v>0.01879549654651225</v>
       </c>
       <c r="E2">
-        <v>0.0006210150570673534</v>
+        <v>0.006145375079246618</v>
       </c>
       <c r="F2">
-        <v>1.106978351206322E-06</v>
+        <v>0.0002153966077480529</v>
       </c>
       <c r="G2">
-        <v>0.0009067406900420405</v>
+        <v>0.01341332710791798</v>
       </c>
       <c r="H2">
-        <v>0.0001057183299697506</v>
+        <v>0.003006713141470829</v>
       </c>
       <c r="I2">
-        <v>0.01591341492680876</v>
+        <v>0.09509980651047445</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.369502549726121E-08</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1679707097409744</v>
+        <v>0.2864952190481806</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001746691962395852</v>
+        <v>0.02682078191458004</v>
       </c>
       <c r="E3">
-        <v>0.00390340642214615</v>
+        <v>0.0210958316845844</v>
       </c>
       <c r="F3">
-        <v>0.001457990488873184</v>
+        <v>0.02610316358265186</v>
       </c>
       <c r="G3">
-        <v>1.778517111361566E-09</v>
+        <v>6.861466508745195E-06</v>
       </c>
       <c r="H3">
-        <v>4.565341438222958E-10</v>
+        <v>7.999884121145939E-06</v>
       </c>
       <c r="I3">
-        <v>0.1327766744468999</v>
+        <v>0.1133954714151884</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.140677104113593E-10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0006802407370596342</v>
+        <v>0.01879549654651225</v>
       </c>
       <c r="C4">
-        <v>0.001746691962395852</v>
+        <v>0.02682078191458004</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2375883589308643</v>
+        <v>0.1884182700796404</v>
       </c>
       <c r="F4">
-        <v>0.4783230840662938</v>
+        <v>0.5822900522202348</v>
       </c>
       <c r="G4">
-        <v>0.7423340301820232</v>
+        <v>0.784998519219158</v>
       </c>
       <c r="H4">
-        <v>0.8782267228051093</v>
+        <v>0.9080357615787207</v>
       </c>
       <c r="I4">
-        <v>0.0005071715976303626</v>
+        <v>0.02105454203064472</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.882116624107866E-06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006210150570673534</v>
+        <v>0.006145375079246618</v>
       </c>
       <c r="C5">
-        <v>0.00390340642214615</v>
+        <v>0.0210958316845844</v>
       </c>
       <c r="D5">
-        <v>0.2375883589308643</v>
+        <v>0.1884182700796404</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1409476917846626</v>
+        <v>0.2027681682837112</v>
       </c>
       <c r="G5">
-        <v>0.9073282296912115</v>
+        <v>0.9163558015554181</v>
       </c>
       <c r="H5">
-        <v>0.5598971600634206</v>
+        <v>0.6137854922569339</v>
       </c>
       <c r="I5">
-        <v>0.0005632903629992914</v>
+        <v>0.01546003742924107</v>
       </c>
       <c r="J5">
-        <v>4.662936703425657E-15</v>
+        <v>1.000407513918056E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.106978351206322E-06</v>
+        <v>0.0002153966077480529</v>
       </c>
       <c r="C6">
-        <v>0.001457990488873184</v>
+        <v>0.02610316358265186</v>
       </c>
       <c r="D6">
-        <v>0.4783230840662938</v>
+        <v>0.5822900522202348</v>
       </c>
       <c r="E6">
-        <v>0.1409476917846626</v>
+        <v>0.2027681682837112</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3815320583568207</v>
+        <v>0.4985827071371658</v>
       </c>
       <c r="H6">
-        <v>0.6739294698962988</v>
+        <v>0.7418713377323947</v>
       </c>
       <c r="I6">
-        <v>0.0001998875974744685</v>
+        <v>0.01379911387132449</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.903339155313489E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009067406900420405</v>
+        <v>0.01341332710791798</v>
       </c>
       <c r="C7">
-        <v>1.778517111361566E-09</v>
+        <v>6.861466508745195E-06</v>
       </c>
       <c r="D7">
-        <v>0.7423340301820232</v>
+        <v>0.784998519219158</v>
       </c>
       <c r="E7">
-        <v>0.9073282296912115</v>
+        <v>0.9163558015554181</v>
       </c>
       <c r="F7">
-        <v>0.3815320583568207</v>
+        <v>0.4985827071371658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3352026830147781</v>
+        <v>0.3204375510621866</v>
       </c>
       <c r="I7">
-        <v>2.571973078957512E-09</v>
+        <v>2.981128721657456E-07</v>
       </c>
       <c r="J7">
-        <v>3.552713678800501E-15</v>
+        <v>7.392429315355997E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001057183299697506</v>
+        <v>0.003006713141470829</v>
       </c>
       <c r="C8">
-        <v>4.565341438222958E-10</v>
+        <v>7.999884121145939E-06</v>
       </c>
       <c r="D8">
-        <v>0.8782267228051093</v>
+        <v>0.9080357615787207</v>
       </c>
       <c r="E8">
-        <v>0.5598971600634206</v>
+        <v>0.6137854922569339</v>
       </c>
       <c r="F8">
-        <v>0.6739294698962988</v>
+        <v>0.7418713377323947</v>
       </c>
       <c r="G8">
-        <v>0.3352026830147781</v>
+        <v>0.3204375510621866</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>7.023936987593515E-12</v>
+        <v>1.174189758756938E-07</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.365030624089769E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01591341492680876</v>
+        <v>0.09509980651047445</v>
       </c>
       <c r="C9">
-        <v>0.1327766744468999</v>
+        <v>0.1133954714151884</v>
       </c>
       <c r="D9">
-        <v>0.0005071715976303626</v>
+        <v>0.02105454203064472</v>
       </c>
       <c r="E9">
-        <v>0.0005632903629992914</v>
+        <v>0.01546003742924107</v>
       </c>
       <c r="F9">
-        <v>0.0001998875974744685</v>
+        <v>0.01379911387132449</v>
       </c>
       <c r="G9">
-        <v>2.571973078957512E-09</v>
+        <v>2.981128721657456E-07</v>
       </c>
       <c r="H9">
-        <v>7.023936987593515E-12</v>
+        <v>1.174189758756938E-07</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.390996651196019E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.369502549726121E-08</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9.140677104113593E-10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.882116624107866E-06</v>
       </c>
       <c r="E10">
-        <v>4.662936703425657E-15</v>
+        <v>1.000407513918056E-05</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.903339155313489E-06</v>
       </c>
       <c r="G10">
-        <v>3.552713678800501E-15</v>
+        <v>7.392429315355997E-07</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.365030624089769E-07</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.390996651196019E-09</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.380844447533681</v>
+        <v>1.108095056329266</v>
       </c>
       <c r="D2">
-        <v>-3.419794020751841</v>
+        <v>-2.656325608215073</v>
       </c>
       <c r="E2">
-        <v>-3.445108239266825</v>
+        <v>-3.222023003459447</v>
       </c>
       <c r="F2">
-        <v>-4.935198496118913</v>
+        <v>-4.945116003781937</v>
       </c>
       <c r="G2">
-        <v>-3.338885322268828</v>
+        <v>-2.82823475085632</v>
       </c>
       <c r="H2">
-        <v>-3.909762069357162</v>
+        <v>-3.581526857186917</v>
       </c>
       <c r="I2">
-        <v>2.41949643289122</v>
+        <v>1.789989650365562</v>
       </c>
       <c r="J2">
-        <v>-11.78097056296682</v>
+        <v>-11.15664147074794</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.380844447533681</v>
+        <v>-1.108095056329266</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.147963367203242</v>
+        <v>-2.473154741072759</v>
       </c>
       <c r="E3">
-        <v>-2.899977705469134</v>
+        <v>-2.597105441787305</v>
       </c>
       <c r="F3">
-        <v>-3.201507210638464</v>
+        <v>-2.487215432491229</v>
       </c>
       <c r="G3">
-        <v>-6.135643225144789</v>
+        <v>-6.940959679142346</v>
       </c>
       <c r="H3">
-        <v>-6.365364347503919</v>
+        <v>-6.844830668853926</v>
       </c>
       <c r="I3">
-        <v>1.505803828750907</v>
+        <v>1.688804583758816</v>
       </c>
       <c r="J3">
-        <v>-11.92196405174524</v>
+        <v>-14.34902586174392</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.419794020751841</v>
+        <v>2.656325608215073</v>
       </c>
       <c r="C4">
-        <v>3.147963367203242</v>
+        <v>2.473154741072759</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.18251424081277</v>
+        <v>-1.382691697460801</v>
       </c>
       <c r="F4">
-        <v>0.7095586981407426</v>
+        <v>0.563074845576699</v>
       </c>
       <c r="G4">
-        <v>-0.3289542665700863</v>
+        <v>-0.2781027556203671</v>
       </c>
       <c r="H4">
-        <v>0.1532994122713849</v>
+        <v>0.1176248903883955</v>
       </c>
       <c r="I4">
-        <v>3.500839517596789</v>
+        <v>2.59811224388897</v>
       </c>
       <c r="J4">
-        <v>-9.297629798132959</v>
+        <v>-7.783440241872945</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.445108239266825</v>
+        <v>3.222023003459447</v>
       </c>
       <c r="C5">
-        <v>2.899977705469134</v>
+        <v>2.597105441787305</v>
       </c>
       <c r="D5">
-        <v>1.18251424081277</v>
+        <v>1.382691697460801</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.474709163431179</v>
+        <v>1.336292091818492</v>
       </c>
       <c r="G5">
-        <v>0.1164708152445309</v>
+        <v>0.1069375892119778</v>
       </c>
       <c r="H5">
-        <v>0.5834021998852339</v>
+        <v>0.5161786186124896</v>
       </c>
       <c r="I5">
-        <v>3.472050210305859</v>
+        <v>2.756055507940982</v>
       </c>
       <c r="J5">
-        <v>-8.101845889937215</v>
+        <v>-6.706201109173961</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.935198496118913</v>
+        <v>4.945116003781937</v>
       </c>
       <c r="C6">
-        <v>3.201507210638464</v>
+        <v>2.487215432491229</v>
       </c>
       <c r="D6">
-        <v>-0.7095586981407426</v>
+        <v>-0.563074845576699</v>
       </c>
       <c r="E6">
-        <v>-1.474709163431179</v>
+        <v>-1.336292091818492</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.875884093965458</v>
+        <v>-0.6947468218619711</v>
       </c>
       <c r="H6">
-        <v>-0.4210197926205493</v>
+        <v>-0.3359758550062515</v>
       </c>
       <c r="I6">
-        <v>3.748149699334442</v>
+        <v>2.813841257101573</v>
       </c>
       <c r="J6">
-        <v>-9.344443168116976</v>
+        <v>-7.494421091260694</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.338885322268828</v>
+        <v>2.82823475085632</v>
       </c>
       <c r="C7">
-        <v>6.135643225144789</v>
+        <v>6.940959679142346</v>
       </c>
       <c r="D7">
-        <v>0.3289542665700863</v>
+        <v>0.2781027556203671</v>
       </c>
       <c r="E7">
-        <v>-0.1164708152445309</v>
+        <v>-0.1069375892119778</v>
       </c>
       <c r="F7">
-        <v>0.875884093965458</v>
+        <v>0.6947468218619711</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9646584228412224</v>
+        <v>1.030087065864654</v>
       </c>
       <c r="I7">
-        <v>6.072124124681835</v>
+        <v>9.095900181251542</v>
       </c>
       <c r="J7">
-        <v>-8.13762849376543</v>
+        <v>-8.431345100587679</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.909762069357162</v>
+        <v>3.581526857186917</v>
       </c>
       <c r="C8">
-        <v>6.365364347503919</v>
+        <v>6.844830668853926</v>
       </c>
       <c r="D8">
-        <v>-0.1532994122713849</v>
+        <v>-0.1176248903883955</v>
       </c>
       <c r="E8">
-        <v>-0.5834021998852339</v>
+        <v>-0.5161786186124896</v>
       </c>
       <c r="F8">
-        <v>0.4210197926205493</v>
+        <v>0.3359758550062515</v>
       </c>
       <c r="G8">
-        <v>-0.9646584228412224</v>
+        <v>-1.030087065864654</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.032762009485667</v>
+        <v>9.816665347076981</v>
       </c>
       <c r="J8">
-        <v>-9.691236801943482</v>
+        <v>-9.697354989083216</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.41949643289122</v>
+        <v>-1.789989650365562</v>
       </c>
       <c r="C9">
-        <v>-1.505803828750907</v>
+        <v>-1.688804583758816</v>
       </c>
       <c r="D9">
-        <v>-3.500839517596789</v>
+        <v>-2.59811224388897</v>
       </c>
       <c r="E9">
-        <v>-3.472050210305859</v>
+        <v>-2.756055507940982</v>
       </c>
       <c r="F9">
-        <v>-3.748149699334442</v>
+        <v>-2.813841257101573</v>
       </c>
       <c r="G9">
-        <v>-6.072124124681835</v>
+        <v>-9.095900181251542</v>
       </c>
       <c r="H9">
-        <v>-7.032762009485667</v>
+        <v>-9.816665347076981</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-12.56282284389844</v>
+        <v>-13.89771850327903</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.78097056296682</v>
+        <v>11.15664147074794</v>
       </c>
       <c r="C10">
-        <v>11.92196405174524</v>
+        <v>14.34902586174392</v>
       </c>
       <c r="D10">
-        <v>9.297629798132959</v>
+        <v>7.783440241872945</v>
       </c>
       <c r="E10">
-        <v>8.101845889937215</v>
+        <v>6.706201109173961</v>
       </c>
       <c r="F10">
-        <v>9.344443168116976</v>
+        <v>7.494421091260694</v>
       </c>
       <c r="G10">
-        <v>8.13762849376543</v>
+        <v>8.431345100587679</v>
       </c>
       <c r="H10">
-        <v>9.691236801943482</v>
+        <v>9.697354989083216</v>
       </c>
       <c r="I10">
-        <v>12.56282284389844</v>
+        <v>13.89771850327903</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,22 +1437,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
-        <v>0.665713940848634</v>
+        <v>0.647131607821703</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
         <v>0.6322477131688989</v>
@@ -1477,22 +1477,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>0.647131607821703</v>
+        <v>0.665713940848634</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>12.5</v>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.5</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>12.5</v>
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>12.5</v>
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>12.5</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -497,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -526,28 +526,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,7 +590,7 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,16 +619,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -721,19 +721,19 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2864952190481806</v>
+        <v>0.03478039904894525</v>
       </c>
       <c r="D2">
-        <v>0.01879549654651225</v>
+        <v>0.005730886560237236</v>
       </c>
       <c r="E2">
-        <v>0.006145375079246618</v>
+        <v>0.000869784575808108</v>
       </c>
       <c r="F2">
-        <v>0.0002153966077480529</v>
+        <v>8.410845420137036E-08</v>
       </c>
       <c r="G2">
-        <v>0.01341332710791798</v>
+        <v>2.311224056583683E-08</v>
       </c>
       <c r="H2">
-        <v>0.003006713141470829</v>
+        <v>2.711397324883791E-06</v>
       </c>
       <c r="I2">
-        <v>0.09509980651047445</v>
+        <v>0.01778327439540117</v>
       </c>
       <c r="J2">
-        <v>2.369502549726121E-08</v>
+        <v>3.529389671186323E-06</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2864952190481806</v>
+        <v>0.03478039904894525</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.02682078191458004</v>
+        <v>0.000933133170477829</v>
       </c>
       <c r="E3">
-        <v>0.0210958316845844</v>
+        <v>0.0002432962755900547</v>
       </c>
       <c r="F3">
-        <v>0.02610316358265186</v>
+        <v>3.12190249207589E-07</v>
       </c>
       <c r="G3">
-        <v>6.861466508745195E-06</v>
+        <v>7.061373707983876E-11</v>
       </c>
       <c r="H3">
-        <v>7.999884121145939E-06</v>
+        <v>8.150347063917707E-11</v>
       </c>
       <c r="I3">
-        <v>0.1133954714151884</v>
+        <v>0.09636849920826518</v>
       </c>
       <c r="J3">
-        <v>9.140677104113593E-10</v>
+        <v>1.784756052458647E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01879549654651225</v>
+        <v>0.005730886560237236</v>
       </c>
       <c r="C4">
-        <v>0.02682078191458004</v>
+        <v>0.000933133170477829</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1884182700796404</v>
+        <v>4.526296422380227E-05</v>
       </c>
       <c r="F4">
-        <v>0.5822900522202348</v>
+        <v>0.002377651758222132</v>
       </c>
       <c r="G4">
-        <v>0.784998519219158</v>
+        <v>3.825324656103746E-05</v>
       </c>
       <c r="H4">
-        <v>0.9080357615787207</v>
+        <v>0.001316865303169656</v>
       </c>
       <c r="I4">
-        <v>0.02105454203064472</v>
+        <v>0.0004571461954243627</v>
       </c>
       <c r="J4">
-        <v>1.882116624107866E-06</v>
+        <v>0.001919456181744827</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006145375079246618</v>
+        <v>0.000869784575808108</v>
       </c>
       <c r="C5">
-        <v>0.0210958316845844</v>
+        <v>0.0002432962755900547</v>
       </c>
       <c r="D5">
-        <v>0.1884182700796404</v>
+        <v>4.526296422380227E-05</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2027681682837112</v>
+        <v>0.02098961833323543</v>
       </c>
       <c r="G5">
-        <v>0.9163558015554181</v>
+        <v>0.0001787497200382848</v>
       </c>
       <c r="H5">
-        <v>0.6137854922569339</v>
+        <v>0.006648398282560031</v>
       </c>
       <c r="I5">
-        <v>0.01546003742924107</v>
+        <v>0.0001567508319268995</v>
       </c>
       <c r="J5">
-        <v>1.000407513918056E-05</v>
+        <v>0.01371107656518666</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0002153966077480529</v>
+        <v>8.410845420137036E-08</v>
       </c>
       <c r="C6">
-        <v>0.02610316358265186</v>
+        <v>3.12190249207589E-07</v>
       </c>
       <c r="D6">
-        <v>0.5822900522202348</v>
+        <v>0.002377651758222132</v>
       </c>
       <c r="E6">
-        <v>0.2027681682837112</v>
+        <v>0.02098961833323543</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4985827071371658</v>
+        <v>0.002411787779441177</v>
       </c>
       <c r="H6">
-        <v>0.7418713377323947</v>
+        <v>0.08995690772488119</v>
       </c>
       <c r="I6">
-        <v>0.01379911387132449</v>
+        <v>5.082129408195968E-06</v>
       </c>
       <c r="J6">
-        <v>2.903339155313489E-06</v>
+        <v>0.3777159203542872</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01341332710791798</v>
+        <v>2.311224056583683E-08</v>
       </c>
       <c r="C7">
-        <v>6.861466508745195E-06</v>
+        <v>7.061373707983876E-11</v>
       </c>
       <c r="D7">
-        <v>0.784998519219158</v>
+        <v>3.825324656103746E-05</v>
       </c>
       <c r="E7">
-        <v>0.9163558015554181</v>
+        <v>0.0001787497200382848</v>
       </c>
       <c r="F7">
-        <v>0.4985827071371658</v>
+        <v>0.002411787779441177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3204375510621866</v>
+        <v>0.007400317242360677</v>
       </c>
       <c r="I7">
-        <v>2.981128721657456E-07</v>
+        <v>4.650013707419021E-11</v>
       </c>
       <c r="J7">
-        <v>7.392429315355997E-07</v>
+        <v>0.05127547150590139</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003006713141470829</v>
+        <v>2.711397324883791E-06</v>
       </c>
       <c r="C8">
-        <v>7.999884121145939E-06</v>
+        <v>8.150347063917707E-11</v>
       </c>
       <c r="D8">
-        <v>0.9080357615787207</v>
+        <v>0.001316865303169656</v>
       </c>
       <c r="E8">
-        <v>0.6137854922569339</v>
+        <v>0.006648398282560031</v>
       </c>
       <c r="F8">
-        <v>0.7418713377323947</v>
+        <v>0.08995690772488119</v>
       </c>
       <c r="G8">
-        <v>0.3204375510621866</v>
+        <v>0.007400317242360677</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.174189758756938E-07</v>
+        <v>2.338196303242057E-11</v>
       </c>
       <c r="J8">
-        <v>1.365030624089769E-07</v>
+        <v>0.423301252663197</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09509980651047445</v>
+        <v>0.01778327439540117</v>
       </c>
       <c r="C9">
-        <v>0.1133954714151884</v>
+        <v>0.09636849920826518</v>
       </c>
       <c r="D9">
-        <v>0.02105454203064472</v>
+        <v>0.0004571461954243627</v>
       </c>
       <c r="E9">
-        <v>0.01546003742924107</v>
+        <v>0.0001567508319268995</v>
       </c>
       <c r="F9">
-        <v>0.01379911387132449</v>
+        <v>5.082129408195968E-06</v>
       </c>
       <c r="G9">
-        <v>2.981128721657456E-07</v>
+        <v>4.650013707419021E-11</v>
       </c>
       <c r="H9">
-        <v>1.174189758756938E-07</v>
+        <v>2.338196303242057E-11</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.390996651196019E-09</v>
+        <v>2.831130403690985E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.369502549726121E-08</v>
+        <v>3.529389671186323E-06</v>
       </c>
       <c r="C10">
-        <v>9.140677104113593E-10</v>
+        <v>1.784756052458647E-05</v>
       </c>
       <c r="D10">
-        <v>1.882116624107866E-06</v>
+        <v>0.001919456181744827</v>
       </c>
       <c r="E10">
-        <v>1.000407513918056E-05</v>
+        <v>0.01371107656518666</v>
       </c>
       <c r="F10">
-        <v>2.903339155313489E-06</v>
+        <v>0.3777159203542872</v>
       </c>
       <c r="G10">
-        <v>7.392429315355997E-07</v>
+        <v>0.05127547150590139</v>
       </c>
       <c r="H10">
-        <v>1.365030624089769E-07</v>
+        <v>0.423301252663197</v>
       </c>
       <c r="I10">
-        <v>1.390996651196019E-09</v>
+        <v>2.831130403690985E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.108095056329266</v>
+        <v>2.250040901733357</v>
       </c>
       <c r="D2">
-        <v>-2.656325608215073</v>
+        <v>-3.060411779479386</v>
       </c>
       <c r="E2">
-        <v>-3.222023003459447</v>
+        <v>-3.849588595048651</v>
       </c>
       <c r="F2">
-        <v>-4.945116003781937</v>
+        <v>-7.830326968161997</v>
       </c>
       <c r="G2">
-        <v>-2.82823475085632</v>
+        <v>-8.458640755767721</v>
       </c>
       <c r="H2">
-        <v>-3.581526857186917</v>
+        <v>-6.253043028202891</v>
       </c>
       <c r="I2">
-        <v>1.789989650365562</v>
+        <v>2.561841862716354</v>
       </c>
       <c r="J2">
-        <v>-11.15664147074794</v>
+        <v>-6.138854145377832</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.108095056329266</v>
+        <v>-2.250040901733357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-2.473154741072759</v>
+        <v>-3.820645244236925</v>
       </c>
       <c r="E3">
-        <v>-2.597105441787305</v>
+        <v>-4.371787577607235</v>
       </c>
       <c r="F3">
-        <v>-2.487215432491229</v>
+        <v>-7.217144518736299</v>
       </c>
       <c r="G3">
-        <v>-6.940959679142346</v>
+        <v>-11.6450128883199</v>
       </c>
       <c r="H3">
-        <v>-6.844830668853926</v>
+        <v>-11.55760935727763</v>
       </c>
       <c r="I3">
-        <v>1.688804583758816</v>
+        <v>1.737008853418346</v>
       </c>
       <c r="J3">
-        <v>-14.34902586174392</v>
+        <v>-5.450029687467636</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.656325608215073</v>
+        <v>3.060411779479386</v>
       </c>
       <c r="C4">
-        <v>2.473154741072759</v>
+        <v>3.820645244236925</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.382691697460801</v>
+        <v>-5.062753209249261</v>
       </c>
       <c r="F4">
-        <v>0.563074845576699</v>
+        <v>-3.432781157497464</v>
       </c>
       <c r="G4">
-        <v>-0.2781027556203671</v>
+        <v>-5.132425834826712</v>
       </c>
       <c r="H4">
-        <v>0.1176248903883955</v>
+        <v>-3.678475307719999</v>
       </c>
       <c r="I4">
-        <v>2.59811224388897</v>
+        <v>4.113613668849005</v>
       </c>
       <c r="J4">
-        <v>-7.783440241872945</v>
+        <v>-3.522114851829228</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.222023003459447</v>
+        <v>3.849588595048651</v>
       </c>
       <c r="C5">
-        <v>2.597105441787305</v>
+        <v>4.371787577607235</v>
       </c>
       <c r="D5">
-        <v>1.382691697460801</v>
+        <v>5.062753209249261</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.336292091818492</v>
+        <v>-2.486200693415273</v>
       </c>
       <c r="G5">
-        <v>0.1069375892119778</v>
+        <v>-4.497983314634143</v>
       </c>
       <c r="H5">
-        <v>0.5161786186124896</v>
+        <v>-2.996494851982176</v>
       </c>
       <c r="I5">
-        <v>2.756055507940982</v>
+        <v>4.551772845727448</v>
       </c>
       <c r="J5">
-        <v>-6.706201109173961</v>
+        <v>-2.678927146547254</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.945116003781937</v>
+        <v>7.830326968161997</v>
       </c>
       <c r="C6">
-        <v>2.487215432491229</v>
+        <v>7.217144518736299</v>
       </c>
       <c r="D6">
-        <v>-0.563074845576699</v>
+        <v>3.432781157497464</v>
       </c>
       <c r="E6">
-        <v>-1.336292091818492</v>
+        <v>2.486200693415273</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.6947468218619711</v>
+        <v>-3.426817790944554</v>
       </c>
       <c r="H6">
-        <v>-0.3359758550062515</v>
+        <v>-1.773700889819608</v>
       </c>
       <c r="I6">
-        <v>2.813841257101573</v>
+        <v>5.9820083755257</v>
       </c>
       <c r="J6">
-        <v>-7.494421091260694</v>
+        <v>-0.9002896664694922</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.82823475085632</v>
+        <v>8.458640755767721</v>
       </c>
       <c r="C7">
-        <v>6.940959679142346</v>
+        <v>11.6450128883199</v>
       </c>
       <c r="D7">
-        <v>0.2781027556203671</v>
+        <v>5.132425834826712</v>
       </c>
       <c r="E7">
-        <v>-0.1069375892119778</v>
+        <v>4.497983314634143</v>
       </c>
       <c r="F7">
-        <v>0.6947468218619711</v>
+        <v>3.426817790944554</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.030087065864654</v>
+        <v>2.950145607752248</v>
       </c>
       <c r="I7">
-        <v>9.095900181251542</v>
+        <v>11.90238525352695</v>
       </c>
       <c r="J7">
-        <v>-8.431345100587679</v>
+        <v>2.061411729034761</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.581526857186917</v>
+        <v>6.253043028202891</v>
       </c>
       <c r="C8">
-        <v>6.844830668853926</v>
+        <v>11.55760935727763</v>
       </c>
       <c r="D8">
-        <v>-0.1176248903883955</v>
+        <v>3.678475307719999</v>
       </c>
       <c r="E8">
-        <v>-0.5161786186124896</v>
+        <v>2.996494851982176</v>
       </c>
       <c r="F8">
-        <v>0.3359758550062515</v>
+        <v>1.773700889819608</v>
       </c>
       <c r="G8">
-        <v>-1.030087065864654</v>
+        <v>-2.950145607752248</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.816665347076981</v>
+        <v>12.33512854734614</v>
       </c>
       <c r="J8">
-        <v>-9.697354989083216</v>
+        <v>0.8159043605585556</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.789989650365562</v>
+        <v>-2.561841862716354</v>
       </c>
       <c r="C9">
-        <v>-1.688804583758816</v>
+        <v>-1.737008853418346</v>
       </c>
       <c r="D9">
-        <v>-2.59811224388897</v>
+        <v>-4.113613668849005</v>
       </c>
       <c r="E9">
-        <v>-2.756055507940982</v>
+        <v>-4.551772845727448</v>
       </c>
       <c r="F9">
-        <v>-2.813841257101573</v>
+        <v>-5.9820083755257</v>
       </c>
       <c r="G9">
-        <v>-9.095900181251542</v>
+        <v>-11.90238525352695</v>
       </c>
       <c r="H9">
-        <v>-9.816665347076981</v>
+        <v>-12.33512854734614</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-13.89771850327903</v>
+        <v>-5.257410756456258</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.15664147074794</v>
+        <v>6.138854145377832</v>
       </c>
       <c r="C10">
-        <v>14.34902586174392</v>
+        <v>5.450029687467636</v>
       </c>
       <c r="D10">
-        <v>7.783440241872945</v>
+        <v>3.522114851829228</v>
       </c>
       <c r="E10">
-        <v>6.706201109173961</v>
+        <v>2.678927146547254</v>
       </c>
       <c r="F10">
-        <v>7.494421091260694</v>
+        <v>0.9002896664694922</v>
       </c>
       <c r="G10">
-        <v>8.431345100587679</v>
+        <v>-2.061411729034761</v>
       </c>
       <c r="H10">
-        <v>9.697354989083216</v>
+        <v>-0.8159043605585556</v>
       </c>
       <c r="I10">
-        <v>13.89771850327903</v>
+        <v>5.257410756456258</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.647131607821703</v>
+        <v>0.6115226537109912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>0.6322477131688989</v>
+        <v>0.6014579467555505</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,59 +1480,59 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>0.665713940848634</v>
+        <v>0.6252526207601822</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="F5">
-        <v>0.7245748680094141</v>
+        <v>0.6429421623577039</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>12.5</v>
       </c>
       <c r="F6">
-        <v>0.7129339594053906</v>
+        <v>0.6485030195483187</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7035312575577468</v>
+        <v>0.66173403998303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7211400044162273</v>
+        <v>0.6958597370951037</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7098950095139561</v>
+        <v>0.6790616759574563</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9001271265168816</v>
+        <v>0.6693422934082164</v>
       </c>
     </row>
   </sheetData>
